--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>27.51000000000005</v>
       </c>
       <c r="C4" t="n">
         <v>65</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>26.41000000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -509,11 +509,13 @@
           <t>Bangalore</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>27.51000000000005</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -530,11 +532,13 @@
           <t>Hyderabad</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>26.41000000000003</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -551,11 +555,13 @@
           <t>Kolkata</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>82.40000000000001</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>84.2</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -593,11 +599,13 @@
           <t>Ahmedabad</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>32</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,8 +622,10 @@
           <t>Bhopal</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>25</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>100</v>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>25.19</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -557,11 +557,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>84.2</t>
+          <t>87.80</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -601,11 +601,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>23.27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26.62</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25.19</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -557,7 +557,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>87.8</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -601,7 +601,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23.27</t>
+          <t>23.3</t>
         </is>
       </c>
       <c r="C9" t="n">
